--- a/Case.xlsx
+++ b/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64AEC8E-7CFD-4421-8537-48C8424C4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67474B3B-FEC0-46E0-8898-664C2325D3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,6 +921,9 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -943,9 +946,6 @@
       </c>
       <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">

--- a/Case.xlsx
+++ b/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67474B3B-FEC0-46E0-8898-664C2325D3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F9E61-F540-4421-A3A8-A162A7830CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,9 +921,6 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -946,6 +943,9 @@
       </c>
       <c r="H6" t="s">
         <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">

--- a/Case.xlsx
+++ b/Case.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F9E61-F540-4421-A3A8-A162A7830CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E72801-5D2E-454C-AA49-4D126BA91A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Salesforce_Case" sheetId="2" r:id="rId1"/>
+    <sheet name="Sf_Case" sheetId="2" r:id="rId1"/>
     <sheet name="GA_Workbench" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1167,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1237,6 +1239,9 @@
       <c r="H2" t="s">
         <v>88</v>
       </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
